--- a/Generator/Test plan Generator/02. Test Set Number of characters.xlsx
+++ b/Generator/Test plan Generator/02. Test Set Number of characters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damjan\Programiranje\QA\Praksa ITOIP\02. nedelja\Test plan Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E6CCD-5D87-4369-B5E0-F3078090219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE07741-7D8A-455F-A39E-37FF3A9A31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="870" windowWidth="18975" windowHeight="11745" firstSheet="5" activeTab="4" xr2:uid="{D2DE829F-C162-4C90-B374-90C72DCD9612}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="5" xr2:uid="{D2DE829F-C162-4C90-B374-90C72DCD9612}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen-TS2-PTC1" sheetId="64" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>Action</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Password with 1000 characters is generated and part of password is shown in textbox "Generated password:"</t>
+  </si>
+  <si>
+    <t>Password does not generated and properly message is displayed</t>
   </si>
 </sst>
 </file>
@@ -339,13 +342,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,18 +676,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -811,18 +814,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -949,18 +952,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1087,18 +1090,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1118,7 +1121,7 @@
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1225,18 +1228,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1352,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4159D5-1CC2-40CD-AC00-21B95425745C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1363,18 +1366,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1394,7 +1397,7 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1490,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F027753-B1F5-4752-8FF8-5840257F2A4C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1501,18 +1504,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1532,8 +1535,8 @@
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,18 +1642,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1777,18 +1780,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1915,18 +1918,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
